--- a/tut05/output/0401EE01.xlsx
+++ b/tut05/output/0401EE01.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.816326530612245</v>
+        <v>7.82</v>
       </c>
       <c r="C6" t="n">
-        <v>6.795454545454546</v>
+        <v>6.8</v>
       </c>
       <c r="D6" t="n">
-        <v>7.913043478260869</v>
+        <v>7.91</v>
       </c>
       <c r="E6" t="n">
-        <v>8.782608695652174</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>9.615384615384615</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>8.5</v>
       </c>
       <c r="H6" t="n">
-        <v>8.744186046511627</v>
+        <v>8.74</v>
       </c>
       <c r="I6" t="n">
-        <v>8.684210526315789</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.816326530612245</v>
+        <v>7.82</v>
       </c>
       <c r="C8" t="n">
-        <v>7.333333333333333</v>
+        <v>7.33</v>
       </c>
       <c r="D8" t="n">
-        <v>7.525179856115108</v>
+        <v>7.53</v>
       </c>
       <c r="E8" t="n">
-        <v>7.837837837837838</v>
+        <v>7.84</v>
       </c>
       <c r="F8" t="n">
-        <v>8.147321428571429</v>
+        <v>8.15</v>
       </c>
       <c r="G8" t="n">
-        <v>8.200757575757576</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.276872964169382</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.321739130434782</v>
+        <v>8.32</v>
       </c>
     </row>
   </sheetData>
